--- a/tests & more/random files/check list.xlsx
+++ b/tests & more/random files/check list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ml170\OneDrive\Desktop\os1 projekat pokusaji\so1 git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ml170\OneDrive\Desktop\os1 projekat pokusaji\so1 git\tests &amp; more\random files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C559C-4C75-402A-BAD4-C5321A517CFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CF1E3-1C88-4033-B72D-28172D301DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>implementation</t>
   </si>
@@ -78,13 +78,22 @@
     <t>ivtentry</t>
   </si>
   <si>
-    <t>kernemsem</t>
-  </si>
-  <si>
     <t>kernelev</t>
   </si>
   <si>
     <t>─</t>
+  </si>
+  <si>
+    <t>kernelsem</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>there are few issues with stack (explaned in readme.txt file)</t>
+  </si>
+  <si>
+    <t>sem</t>
   </si>
 </sst>
 </file>
@@ -411,11 +420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -423,9 +430,10 @@
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="79.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -438,25 +446,31 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -470,10 +484,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -490,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -507,89 +521,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
